--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-1stRepayment-overdues.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-1stRepayment-overdues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>% Loan Amount + Interest</t>
-  </si>
-  <si>
-    <t>$2.43</t>
   </si>
   <si>
     <t>$0</t>
@@ -606,7 +603,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +648,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>260.29000000000002</v>
+        <v>260.2</v>
       </c>
       <c r="B3" s="6">
         <v>51.01</v>
@@ -663,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>209.28</v>
+        <v>209.19</v>
       </c>
       <c r="F3" s="6">
         <v>114.65</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>71.75</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -703,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>71.75</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="F5" s="6">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +716,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,7 +910,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1086,7 +1083,7 @@
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1102,13 +1099,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>844.81</v>
+        <v>844.84</v>
       </c>
       <c r="G5" s="7">
-        <v>2474.7399999999998</v>
+        <v>2474.71</v>
       </c>
       <c r="H5" s="6">
-        <v>42.91</v>
+        <v>42.88</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1147,13 +1144,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>844.38</v>
+        <v>844.4</v>
       </c>
       <c r="G6" s="7">
-        <v>1630.36</v>
+        <v>1630.31</v>
       </c>
       <c r="H6" s="6">
-        <v>43.34</v>
+        <v>43.32</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1192,13 +1189,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>848.18</v>
+        <v>848.2</v>
       </c>
       <c r="G7" s="6">
-        <v>782.18</v>
+        <v>782.11</v>
       </c>
       <c r="H7" s="6">
-        <v>39.54</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1237,13 +1234,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>782.18</v>
+        <v>782.11</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>39.51</v>
+        <v>39.49</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1252,7 +1249,7 @@
         <v>69.319999999999993</v>
       </c>
       <c r="K8" s="6">
-        <v>891.01</v>
+        <v>890.92</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1266,7 +1263,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>891.01</v>
+        <v>890.92</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1276,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>948</v>
+        <v>218</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1333,19 +1330,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>44.12</v>
+        <v>44.1</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>4373.92</v>
+        <v>4371.3999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>947</v>
+        <v>217</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1357,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>44.12</v>
+        <v>44.1</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>946</v>
+        <v>216</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1381,19 +1378,19 @@
         <v>31</v>
       </c>
       <c r="E4" s="6">
-        <v>39.49</v>
+        <v>39.47</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7">
-        <v>4329.8</v>
+        <v>4327.3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>945</v>
+        <v>215</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1405,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>39.49</v>
+        <v>39.47</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1417,7 +1414,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>944</v>
+        <v>214</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1429,19 +1426,19 @@
         <v>31</v>
       </c>
       <c r="E6" s="6">
-        <v>43.29</v>
+        <v>43.26</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="7">
-        <v>4290.3100000000004</v>
+        <v>4287.83</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>943</v>
+        <v>213</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1453,7 +1450,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>43.29</v>
+        <v>43.26</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1465,7 +1462,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>942</v>
+        <v>212</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1477,19 +1474,19 @@
         <v>31</v>
       </c>
       <c r="E8" s="6">
-        <v>42.85</v>
+        <v>42.83</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7">
-        <v>4247.0200000000004</v>
+        <v>4244.57</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>941</v>
+        <v>211</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -1501,7 +1498,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>42.85</v>
+        <v>42.83</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>940</v>
+        <v>210</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
@@ -1525,19 +1522,19 @@
         <v>31</v>
       </c>
       <c r="E10" s="6">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7">
-        <v>4204.17</v>
+        <v>4201.74</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>939</v>
+        <v>209</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1549,7 +1546,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="6">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>938</v>
+        <v>208</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>927</v>
+        <v>197</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>926</v>
+        <v>196</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>925</v>
+        <v>195</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
@@ -1662,15 +1659,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1731,60 +1729,28 @@
         <v>43</v>
       </c>
       <c r="E3" s="8">
-        <v>41958</v>
+        <v>42095</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="8">
-        <v>42095</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/23/waivecharge/154" display="D:\bharath\Code\conflux-web\dist\conflux-web\index.html?baseApiUrl=https:\localhost:8443\&amp;tenantIdentifier=default - /loanaccountcharge/23/waivecharge/154"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/23/waivecharge/155" display="D:\bharath\Code\conflux-web\dist\conflux-web\index.html?baseApiUrl=https:\localhost:8443\&amp;tenantIdentifier=default - /loanaccountcharge/23/waivecharge/155"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/9/waivecharge/62" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/9/waivecharge/62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
